--- a/Data/MockUP.xlsx
+++ b/Data/MockUP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgesolis/Dropbox/local/local-doc/local-doc-edu/programming/BCTM/data-analist-bootcamp/Final_Project/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgesolis/Dropbox/local/local-doc/local-doc-edu/programming/BCTM/data-analist-bootcamp/Final_Project/Bootcamp_Final_Project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2867227-1CE5-C84D-ADF0-FBEEE8CB379A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868D6E38-9AA5-FC43-8FC1-EECF04DABEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27440" yWindow="2300" windowWidth="20240" windowHeight="11740" xr2:uid="{D65BEECF-CF03-E749-90E6-F98D29661669}"/>
+    <workbookView xWindow="-29960" yWindow="940" windowWidth="20240" windowHeight="19300" xr2:uid="{D65BEECF-CF03-E749-90E6-F98D29661669}"/>
   </bookViews>
   <sheets>
     <sheet name="MockUP" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Loacation</t>
   </si>
@@ -58,19 +58,67 @@
   </si>
   <si>
     <t>Tweet</t>
+  </si>
+  <si>
+    <t>“For the past 3 years public hospitals in have repeatedly run short of drugs, including those to treat cancer, high blood pressure and diabetes. In November President #AMLO scolded health officials for the shortages. Yet they are caused by his policies”</t>
+  </si>
+  <si>
+    <t>Para los ciudadanos anti #AMLO, parece que lo ideal sería no participar en la Consulta de Revocación. Creo exactamente lo contrario; un buen ciudadano no debe deambular por la vida sin dejar huella. En democracia, votar, en cualquier sentido, es derecho y obligación.</t>
+  </si>
+  <si>
+    <t>Lunatic far-left demagogue #AMLO wants to "pause" relations with #Spain (which last ruled #Mexico in 1821) but not "pausing" with kleptocratic commies in Cuba, Venezuela and Nicaragua. The funny thing is that the left/far-left (#PSOE/#Podemos) is in power in Spain too.</t>
+  </si>
+  <si>
+    <t>"...saben muy bien, el gobierno de los Estados Unidos, que no se permite la corrupción, los abusos y que no actuamos de manera arbitraria, que lo que estamos haciendo en lo que corresponde a la industria eléctrica es buscar reparar un daño que se le causó a la nación"
+#AMLO</t>
+  </si>
+  <si>
+    <t>Quienes opinan de otra cosa que no sea los excesos y abusos de poder de #AMLO y sus hijos, fueron presas simples de la estrategia del presidente de distracción, que explique #AMLO toda la corrupción que solapa en PEMEX.</t>
+  </si>
+  <si>
+    <t>¡Y  chayotes  de Zavala ,sin duda siguen el guion de la guerra sucia  por el corrupto X y Junco  ,que solo les importa el dinero publico de Mexicanos,reclaman a #AMLO el dinero cuando sus verdugos del PRIAN ,son ahora sus mecenas fascistas del PRIAN y Oligarcas corruptos! Cinismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonita tarde y buen provecho mi queridísimo y amadísimo 
+@lopezobrador_
+, que él Creador guarde sus caminos, sus pasos y derrame infinitas bendiciones sobre usted mi hermosísimo #AMLO </t>
+  </si>
+  <si>
+    <t>Guadalajara</t>
+  </si>
+  <si>
+    <t>This story, esp today's comments from MX Prez #AMLO, is truly bizarre. Maybe it's good politics for him, but on the merits the argument that the actions of Spain's govt or even Spanish firms operating in MX, warrant a 'pause' in relations, is awfully weak.</t>
+  </si>
+  <si>
+    <t>Qué orgullo tener un líder mundial, como presidente de México, y no un títere de USA, cómo Peña Nieto y Felipe Calderón.
+¡Mano arriba si apoyas, y respaldas, al presidente Andrés Manuel López Obrador🖐🏽Dizzy symbol</t>
+  </si>
+  <si>
+    <t>I was listening to #AMLO and my girlfriend who is not Mexican asks me "are you listening to a Priest? What Church is this?" LOL. Yeah, he sounds like a Priest but he is just #AmloCorruptoMafioso with Neopolulist ideas</t>
+  </si>
+  <si>
+    <t>25/02/2022</t>
+  </si>
+  <si>
+    <t>30/02/2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,8 +141,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -110,6 +168,59 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1" descr="Flag of Mexico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0194E2BB-24C7-F64A-83FF-FA0BABE458B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="203200"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -409,47 +520,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CDB79B-AABF-2F46-9FC5-C3D5B57F6CF9}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="B1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="65.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="2" spans="2:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="100" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="D3">
+        <v>40</v>
+      </c>
+      <c r="E3" s="4">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
+      </c>
+      <c r="D4">
+        <v>45</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5" s="4">
+        <v>44683</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>60</v>
+      </c>
+      <c r="E8" s="4">
+        <v>44683</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>18</v>
+      </c>
+      <c r="E10" s="4">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/MockUP.xlsx
+++ b/Data/MockUP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgesolis/Dropbox/local/local-doc/local-doc-edu/programming/BCTM/data-analist-bootcamp/Final_Project/Bootcamp_Final_Project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868D6E38-9AA5-FC43-8FC1-EECF04DABEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E235155-68C6-9045-BFEC-6BC6717C783A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29960" yWindow="940" windowWidth="20240" windowHeight="19300" xr2:uid="{D65BEECF-CF03-E749-90E6-F98D29661669}"/>
+    <workbookView xWindow="-29460" yWindow="580" windowWidth="20240" windowHeight="19300" xr2:uid="{D65BEECF-CF03-E749-90E6-F98D29661669}"/>
   </bookViews>
   <sheets>
     <sheet name="MockUP" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Loacation</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reach </t>
   </si>
   <si>
     <t>Chihuahua</t>
@@ -101,6 +98,12 @@
   </si>
   <si>
     <t>30/02/2021</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>Like</t>
   </si>
 </sst>
 </file>
@@ -520,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CDB79B-AABF-2F46-9FC5-C3D5B57F6CF9}">
-  <dimension ref="B1:F11"/>
+  <dimension ref="B1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -533,9 +536,9 @@
     <col min="5" max="5" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -547,29 +550,38 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
       <c r="D2">
         <v>30</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="100" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="100" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>40</v>
@@ -577,27 +589,39 @@
       <c r="E3" s="4">
         <v>44621</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="68" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>45</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="102" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>90</v>
+      </c>
+      <c r="G4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="102" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>50</v>
@@ -605,27 +629,39 @@
       <c r="E5" s="4">
         <v>44683</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="51" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>20</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="68" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>56</v>
+      </c>
+      <c r="G6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="68" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>30</v>
@@ -633,13 +669,19 @@
       <c r="E7" s="4">
         <v>44621</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>71</v>
+      </c>
+      <c r="G7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="68" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
         <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
       </c>
       <c r="D8">
         <v>60</v>
@@ -647,27 +689,39 @@
       <c r="E8" s="4">
         <v>44683</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="68" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9">
         <v>25</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="68" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="68" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>18</v>
@@ -675,19 +729,31 @@
       <c r="E10" s="4">
         <v>44621</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="51" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>30</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Data/MockUP.xlsx
+++ b/Data/MockUP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgesolis/Dropbox/local/local-doc/local-doc-edu/programming/BCTM/data-analist-bootcamp/Final_Project/Bootcamp_Final_Project/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luzhernandez/Desktop/Data Analysis/Projecto Final/Bootcamp_Final_Project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E235155-68C6-9045-BFEC-6BC6717C783A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAF5C76-AE9C-0248-9ECB-968AF5AA03E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29460" yWindow="580" windowWidth="20240" windowHeight="19300" xr2:uid="{D65BEECF-CF03-E749-90E6-F98D29661669}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{D65BEECF-CF03-E749-90E6-F98D29661669}"/>
   </bookViews>
   <sheets>
     <sheet name="MockUP" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>Loacation</t>
   </si>
@@ -104,6 +104,56 @@
   </si>
   <si>
     <t>Like</t>
+  </si>
+  <si>
+    <t>Hoy salió el Índice de Democracia 2021 de @TheEconomist.
+México ya no es considerado ni siquiera un país con una democracia defectuosa. Los puntajes ya nos colocan como un régimen híbrido, en camino al autoritarismo.
+Este mapa debería ser un escándalo.</t>
+  </si>
+  <si>
+    <t>El Gobierno de #España rechaza tajantemente las descalificaciones realizadas por el Presidente de #México, Andrés López Obrador. 
+México es un socio estratégico para nuestro país, y el Gobierno Bandera de España  desea unas relaciones basadas en el respeto mutuo.
+https://bit.ly/3GGmNJA</t>
+  </si>
+  <si>
+    <t>Donovan Carrillo Bandera de México trains alongside mostly teenagers in a shopping mall rink in León, Mexico, that is not Olympic size. It took a day to adjust his #Beijing2022 program. 
+Now he's made Olympic history, and he says you'll see him again in 2026. https://nyti.ms/3uDeQCx</t>
+  </si>
+  <si>
+    <t>De acuerdon con un análisis de The Economist, el sistema de salud está en colapso en México. El sistema tiene escasos médicos, enfermeras y camas de hospital y el 41 % del gasto en salud proviene del propio bolsillo, la proporción más alta en la OCDE.</t>
+  </si>
+  <si>
+    <t>Jalisco</t>
+  </si>
+  <si>
+    <t>The “Boy heroes”were six Mexican military cadets who were killed in the defence of Mexico City during the Battle of Chapultepec. Even though outnumbered &amp; ordered to retreat the six cadets refused to fall back and fought to the death. They were aged between 13-20.</t>
+  </si>
+  <si>
+    <t>Yucatan</t>
+  </si>
+  <si>
+    <t>Chichen Itza, one of the 7 wonders of the world is a complex of Mayan ruins centrally located on the northern half of Mexico’s Yucatan Peninsula. 
+📸 - Kriszti
+#mexico #yucatan</t>
+  </si>
+  <si>
+    <t>We want to ask you for a Valentine's card with the name "Liam Payne México" thank you @LiamPayne 💌💘🇲🇽 #HeresToTheFuture</t>
+  </si>
+  <si>
+    <t>Journalists in Mexico are posting a blank image as a protest against the killing of five journalists in 2022. #JournalismAtRisk</t>
+  </si>
+  <si>
+    <t>San Luis Potosi</t>
+  </si>
+  <si>
+    <t>Imagine if we were doing military drills a couple hundred miles from the Mexican border so China decided to say we were invading Mexico, and sent thousands of troops to the Guatemalan border.
+What would be our reaction?</t>
+  </si>
+  <si>
+    <t>Baja California</t>
+  </si>
+  <si>
+    <t>New Mexico StatePolice officer who was shot is in stable condition. Heavy police presence in the area, the scene is still very active. Suspects are still at large. Here are images from the scene just east of #Albquerque, #NewMexico @ABQJournal follow @MReisen88  for updates</t>
   </si>
 </sst>
 </file>
@@ -523,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CDB79B-AABF-2F46-9FC5-C3D5B57F6CF9}">
-  <dimension ref="B1:G11"/>
+  <dimension ref="B1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -756,6 +806,206 @@
         <v>6</v>
       </c>
     </row>
+    <row r="12" spans="2:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>60</v>
+      </c>
+      <c r="E12" s="4">
+        <v>44602</v>
+      </c>
+      <c r="F12">
+        <v>2904</v>
+      </c>
+      <c r="G12">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="119" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>40</v>
+      </c>
+      <c r="E13" s="4">
+        <v>44602</v>
+      </c>
+      <c r="F13">
+        <v>800</v>
+      </c>
+      <c r="G13">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>33</v>
+      </c>
+      <c r="E14" s="4">
+        <v>44602</v>
+      </c>
+      <c r="F14">
+        <v>2142</v>
+      </c>
+      <c r="G14">
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <v>27</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15">
+        <v>3000</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>28</v>
+      </c>
+      <c r="E16" s="4">
+        <v>44239</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <v>47</v>
+      </c>
+      <c r="E17" s="4">
+        <v>44474</v>
+      </c>
+      <c r="F17">
+        <v>1000</v>
+      </c>
+      <c r="G17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18" s="4">
+        <v>44572</v>
+      </c>
+      <c r="F18">
+        <v>2000</v>
+      </c>
+      <c r="G18">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
+      </c>
+      <c r="E19" s="4">
+        <v>44456</v>
+      </c>
+      <c r="F19">
+        <v>10000</v>
+      </c>
+      <c r="G19">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20">
+        <v>33</v>
+      </c>
+      <c r="E20" s="4">
+        <v>44564</v>
+      </c>
+      <c r="F20">
+        <v>3000</v>
+      </c>
+      <c r="G20">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>53</v>
+      </c>
+      <c r="E21" s="4">
+        <v>44542</v>
+      </c>
+      <c r="F21">
+        <v>300</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
